--- a/account_report_deploy/report_link/account_report_link.xlsx
+++ b/account_report_deploy/report_link/account_report_link.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspaces\odoo8_addons\Projects\Sanctum Inle\extra_addons_SIR\account_report_deploy\report_link\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BA-Consultant\AppData\Roaming\Skype\My Skype Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19452" windowHeight="7332"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Report Name</t>
   </si>
@@ -32,142 +32,28 @@
     <t>Financial Report</t>
   </si>
   <si>
+    <t>Trial Balance Report</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/birt/frameset?__report=trial_balance_report.rptdesign</t>
+  </si>
+  <si>
+    <t>Report Link</t>
+  </si>
+  <si>
+    <t>Monthly Report</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_monthly.rptdesign</t>
+  </si>
+  <si>
+    <t>Yearly Report</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_yearly.rptdesign</t>
+  </si>
+  <si>
     <t>http://localhost:8080/birt/frameset?__report=account_financial_report.rptdesign</t>
-  </si>
-  <si>
-    <t>Analytic Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_analytic.rptdesign</t>
-  </si>
-  <si>
-    <t>Analytic Level Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_analytic_horizontal_pl.rptdesign</t>
-  </si>
-  <si>
-    <t>Currency Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_report.rptdesign</t>
-  </si>
-  <si>
-    <t>Analytic Monthly Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_monthly_analytic.rptdesign</t>
-  </si>
-  <si>
-    <t>Analytic Yearly Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_yearly_analytic.rptdesign</t>
-  </si>
-  <si>
-    <t>Trial Balance Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=trial_balance_report.rptdesign</t>
-  </si>
-  <si>
-    <t>Report Link</t>
-  </si>
-  <si>
-    <t>Cost of Goods Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_calculation_of_cost_of_goods_report.rptdesign</t>
-  </si>
-  <si>
-    <t>Opening and Closing Period Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_opening_and_closing_period_report.rptdesign</t>
-  </si>
-  <si>
-    <t>Analytic Department Code Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_analytic_department_code.rptdesign</t>
-  </si>
-  <si>
-    <t>Monthly Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_monthly.rptdesign</t>
-  </si>
-  <si>
-    <t>Yearly Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_report_yearly.rptdesign</t>
-  </si>
-  <si>
-    <t>Monthly Schedule Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_schedule_report_monthly.rptdesign</t>
-  </si>
-  <si>
-    <t>Yearly Schedule Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_schedule_report_yearly.rptdesign</t>
-  </si>
-  <si>
-    <t>Schedule Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=account_financial_schedule_report.rptdesign</t>
-  </si>
-  <si>
-    <t>Balance Sheet Horizontal Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=balance_sheet_report_horizontal_report.rptdesign</t>
-  </si>
-  <si>
-    <t>Balance Sheet Monthly Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=balance_sheet_report_monthly.rptdesign</t>
-  </si>
-  <si>
-    <t>Trading Profit and Loss Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=financial_balance_sheet_detail_and_trading_profits_loss.rptdesign</t>
-  </si>
-  <si>
-    <t>National Sale and Stock Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=sale_and_stock.rptdesign</t>
-  </si>
-  <si>
-    <t>Sale Summary Information By Category</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=sale_summary_by_category.rptdesign</t>
-  </si>
-  <si>
-    <t>Sale Summary Information By Customer</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=sale_summary_by_customer.rptdesign</t>
-  </si>
-  <si>
-    <t>Sale Summary Information By Staff</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=sale_summary_by_staff.rptdesign</t>
-  </si>
-  <si>
-    <t>Stock and Sale Information Report</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/birt/frameset?__report=stock_sale_report_by_category.rptdesign</t>
   </si>
 </sst>
 </file>
@@ -496,230 +382,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B15" r:id="rId9"/>
-    <hyperlink ref="B16" r:id="rId10"/>
-    <hyperlink ref="B17" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
